--- a/data/trans_dic/P23_DUKE_AC_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_DUKE_AC_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe apoyo social confidencial bajo</t>
+          <t>Población que recibe apoyo social confidencial bajo (tasa de respuesta: 96,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>79,1%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>78,59%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>77,24%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>79,46%</t>
+          <t>83,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>85,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>84,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>76,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>78,11%</t>
+          <t>81,79%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>80,89%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>82,79%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>83,73%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>78,77%</t>
+          <t>80,4%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>77,66%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>80,27%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>79,18%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>82,99%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>84,46%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>82,56%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,4; 21,46</t>
+          <t>75,44; 82,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,52; 16,65</t>
+          <t>74,85; 81,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,97; 20,86</t>
+          <t>72,87; 80,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76,26; 82,56</t>
+          <t>79,52; 87,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,44; 18,56</t>
+          <t>81,99; 87,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,37; 17,63</t>
+          <t>81,62; 87,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,56; 25,9</t>
+          <t>72,77; 79,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>74,73; 81,02</t>
+          <t>78,94; 84,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,92; 18,92</t>
+          <t>77,88; 83,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,21; 16,26</t>
+          <t>79,04; 86,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,89; 21,35</t>
+          <t>80,69; 86,99</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>76,37; 81,09</t>
+          <t>77,73; 83,21</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>75,05; 80,08</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>77,96; 82,32</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>76,89; 81,48</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>80,15; 85,21</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>82,34; 86,39</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>80,33; 84,7</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>73,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>82,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>78,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>77,52%</t>
+          <t>78,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>84,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>82,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>81,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>77,69%</t>
+          <t>83,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>78,51%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>82,02%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>84,34%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>77,6%</t>
+          <t>80,41%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>77,76%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>82,88%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>78,31%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>80,09%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>84,5%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>81,68%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,56; 23,5</t>
+          <t>68,26; 77,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,06; 21,33</t>
+          <t>78,09; 85,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,71; 20,69</t>
+          <t>73,89; 82,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>68,0; 83,75</t>
+          <t>72,31; 82,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,23; 20,75</t>
+          <t>74,66; 90,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,58; 18,33</t>
+          <t>74,81; 87,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,34; 19,78</t>
+          <t>78,26; 85,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>71,61; 83,06</t>
+          <t>79,31; 86,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,15; 19,89</t>
+          <t>74,09; 81,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,48; 18,55</t>
+          <t>77,41; 85,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,16; 19,23</t>
+          <t>78,76; 89,25</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>71,71; 81,77</t>
+          <t>74,26; 85,62</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>74,26; 80,55</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>80,48; 85,27</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>75,17; 80,96</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>76,75; 82,96</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>78,94; 88,15</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>76,38; 85,91</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>75,17%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>78,35%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>82,95%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>80,04%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>18,97%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>74,17%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>88,0%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>82,42%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>87,16%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>16,17%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>18,33%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>20,18%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>74,68%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>83,09%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>82,69%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>83,65%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,78; 20,85</t>
+          <t>60,5; 83,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,56; 34,39</t>
+          <t>69,39; 85,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,47; 32,78</t>
+          <t>75,77; 89,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>65,46; 87,75</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>12,71; 26,54</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,55; 20,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,12; 27,0</t>
+          <t>66,32; 81,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>81,26; 92,67</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>75,88; 87,9</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>78,62; 92,23</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>12,0; 21,76</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>14,22; 24,51</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>15,48; 27,5</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>66,1; 80,13</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>78,18; 87,66</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>78,19; 86,83</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>76,55; 89,06</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>76,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>79,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>78,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>79,0%</t>
+          <t>80,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>85,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>84,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>78,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>78,02%</t>
+          <t>83,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>80,18%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>83,0%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>83,86%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>78,5%</t>
+          <t>80,41%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>77,35%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>81,62%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>79,26%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>81,92%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>84,47%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>82,36%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,34; 19,2</t>
+          <t>72,8; 79,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,46; 18,39</t>
+          <t>77,72; 82,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,26; 19,98</t>
+          <t>75,0; 80,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>75,87; 82,11</t>
+          <t>77,78; 84,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,31; 18,66</t>
+          <t>82,32; 87,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,11; 16,94</t>
+          <t>81,21; 86,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,98; 21,55</t>
+          <t>75,88; 80,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>75,14; 80,46</t>
+          <t>81,09; 85,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,42; 18,4</t>
+          <t>77,98; 82,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,82; 16,84</t>
+          <t>80,41; 85,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,53; 19,62</t>
+          <t>81,42; 86,13</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>76,25; 80,42</t>
+          <t>77,61; 82,79</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>75,28; 79,14</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>80,12; 83,32</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>77,46; 80,9</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>80,09; 83,77</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>82,47; 86,09</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>80,37; 84,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe apoyo social confidencial bajo (tasa de respuesta: 96,6%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>425.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>487.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>499.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>398.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>541.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>541.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>501.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>624.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>672.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>496.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>685.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>688.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>926.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1111.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1171.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>894.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1226.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1229.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1222680</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1170391</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1182040</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1271397</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>179917</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>182395</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1290265</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1342670</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1402879</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1373597</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>183545</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>178081</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2512945</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2513061</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2584919</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2644994</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>363462</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>360476</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1166078; 1282213</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1114754; 1220504</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1115227; 1237029</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1214902; 1330287</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>173087; 185349</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>175580; 188887</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1229859; 1346917</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1295873; 1387054</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1350670; 1448201</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1311410; 1427741</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>176887; 190692</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>172152; 184294</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2428445; 2591245</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2440856; 2577319</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2510064; 2660108</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2554437; 2715521</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>354329; 371761</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>350742; 369817</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>316.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>385.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>376.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>412.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>499.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>474.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>407.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>728.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>884.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>850.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>728.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>375.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>378.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>940337</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1010562</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>998246</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1017098</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>56033</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>55947</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1099256</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1053107</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>994921</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1067571</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>52100</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>51373</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2039593</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2063669</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1993167</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2084669</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>108133</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>107321</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>874590; 995480</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>960129; 1050419</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>944432; 1052948</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>940962; 1074718</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>49421; 59674</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>50507; 59176</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1050067; 1148233</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>999556; 1088619</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>938886; 1037733</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1007575; 1114186</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>48650; 55130</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>47443; 54697</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1947761; 2112789</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2003812; 2123100</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1913239; 2060848</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1997792; 2159410</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>101020; 112795</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>100362; 112885</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>295566</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>297635</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>333977</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>305913</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>282751</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>322383</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>320723</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>341714</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>578317</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>620018</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>654700</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>647627</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>237870; 328059</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>263591; 324677</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>305057; 358759</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>250179; 335379</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>252808; 309473</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>297682; 339485</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>295287; 342071</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>308224; 361570</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>511924; 620531</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>583385; 654129</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>619100; 687489</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>592652; 689493</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>826.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>976.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>988.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>795.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>725.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>740.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1010.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1261.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1282.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1005.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>876.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>867.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1836.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>2237.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2270.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>1800.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>1601.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>1607.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2458583</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2478588</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2514263</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2594409</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>235950</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>238342</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2672271</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2718161</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2718522</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2782882</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>235645</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>229455</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>5130855</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>5196748</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>5232785</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>5377290</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>471595</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>467797</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2344288; 2559072</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2408108; 2550692</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2408272; 2588930</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2497845; 2697915</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>228283; 243439</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>229530; 245391</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2589866; 2753899</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2650117; 2785376</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2643920; 2788305</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2696108; 2856926</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>228773; 242007</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>221466; 236256</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>4993440; 5249288</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>5101288; 5305065</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>5113610; 5340860</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>5257372; 5498595</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>460421; 480671</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>456501; 477838</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
